--- a/500all/speech_level/speeches_CHRG-114hhrg94409.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94409.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. The Subcommittee on Immigration and Border Security. This is a hearing on ``Birthright Citizenship: Is It the Right Policy for America?''    And I would say, at the outset, to my colleagues and to our witnesses, I have a meeting that is going to regrettably take me away. So, at some point, I am going to turn the gavel over, but I want to thank you--because I won't be here at the end--and thank you for participating in this and thank my colleagues as well.    The Subcommittee on Immigration and Border Security will come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time.    We welcome everyone. And the other administrative note is we are expecting votes in the not too distant future, so we will need to go vote, and then the Members that are able to do so will then come back. And we apologize in advance for any inconvenience, but there is no way to avoid that.    At this point, I will recognize myself for an opening statement only to say that this is an interesting and important topic.    And, with that, I will yield to the gentleman from Iowa, Mr. King.</t>
   </si>
   <si>
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    I appreciate you yielding for the purposes of this opening statement. And I would like to raise these points at the beginning of this hearing, that this topic of birthright citizenship is something that I have worked on for some time. I want to give some credit to the now Governor of Georgia, Nathan Deal, who used to be the one that was leading on this topic. And when he went back to Georgia, somebody had to pick up the ball and go with it. It is myself in the House primarily, with a lot of colleagues working together. And also Senator Vitter on the other side is the--is leading on a very similar bill that I am speaking to and not exactly that--as a component of the subject here that is before us.    And the 14th Amendment of the Constitution says that all persons born in the United States and subject to the jurisdiction thereof are citizens of the United States and the State where they reside. And that little troublesome clause in there, ``subject to the jurisdiction thereof,'' is the subject of our discussion here in this--in this hearing today in that and the policies that flow from it.    And for those who argue that the physical birth of a baby on U.S. soil is an automatic grant of citizenship by policy, by Constitution, by statute, I believe, are uttering an ungrounded statement in that that clause, that troublesome clause of ``subject to the jurisdiction thereof'' defined it differently for clear reasons.    And, that is, that if I look at the quotes from a number of U.S. Senators who debated this topic back in 1865 and 1866--the 14th Amendment was ratified finally in 1868--the lead Senator on this, one of the authors, Senator Jacob Howard said this: This will not, of course, include persons born in the United States who are foreigners or aliens, who belong to the families of ambassadors or foreign ministers accredited to the Government of the United States, but will include every other class of persons.    And the purpose, of course, of the 14th Amendment was to guarantee that the babies born to the freed slaves would be citizens of the United States.    The specificity in the clause was debated fairly thoroughly in the United States Congress, and it was there because there were Native Americans, called Indians under this--under the statute then and the amendments then, who would lose their membership in the tribe if they were granted automatic citizenship. So the clause was carefully targeted to make sure that African American babies born in America were citizens, just as those--just as those newly freed slaves were. They became citizens under the 13th Amendment of the Constitution. It.    Did not contemplate that anyone who could sneak into the United States and have a baby would be conferred automatic citizenship on that baby. That is a practice that has evolved, not a law that has been passed, not a provision within the Constitution anywhere, including in the 14th Amendment. So we will get deeper into this definition of the ``subject to the jurisdiction thereof.''    This will be, if this bill is passed and becomes law--I don't think there is any doubt it will be litigated. I look forward to that litigation. I think an objective court that would review the documents that build to this point has to conclude the same thing that I have.    This is also something that flows from the Dred Scott decision that said that African Americans could never be citizens in the United States. That is the biggest reason that--well, it is one of the two big reasons for the Civil war. It is still debatable as to which is the biggest reason, I might point out. But it is the reason for the 13th Amendment and the 14th Amendment to correct Dred Scott. And so it corrected it, and then we started this practice, so--and to protect Native Americans.    So the illegal parents, are they going to decide, or are we going to decide as representatives of the people of the United States of America? And I suggest that it is our job here as Congress to decide who will be citizens, not someone in a foreign country that can sneak into the United States and have a baby and then go home with a birth certificate.    By the way, birthright--birth tourism has grown substantially. We had a hearing on this some years ago. The turnkey price for a Chinese pregnant woman to fly to the United States and check into a hotel, go through the maternity process, have a baby, get the birth certificate, take the baby back to China was $30,000 in that testimony several years ago, that price has gone up to $40,000 to $80,000. However, they still attest that they can't pay for their medical bills. And so we, the taxpayers, fund that.    Also, the numbers of birth tourism were then 700 and--340,000 to 750,000. That is my recollection from that testimony. And today, I think, we are going to hear maybe 300,000 to 400,000 babies born automatically in America.    There is a lot of data to flow out here. The objective thing for us to do is set the policy like almost every other industrialized country in the world has done. I encourage that we do that.    I thank the Chairman. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman.    Earlier this month, the House Committee on Science, Space, and Technology, where I also serve, held a hearing to cast doubt on global warming science. Never mind the overwhelming consensus in the scientific community that humans are contributing to climate change. Never mind the evidence that rapidly increasing greenhouse gas emissions are disrupting life all over the world. Rather than working to develop and support innovative methods of combatting climate change, the Science Committee held another hearing to debate whether established science is real.    I can't help but think that today's hearing is a similarly fruitless effort. The question that we are asked to consider is whether birthright citizenship is the right policy for America. I think the answer is clearly yes and that, in fact, no other policy would be worthy of this country.    The origins of birthright citizenship long predate the 14th Amendment. Supreme Court Justice Joseph Story said early on that, ``Nothing is better settled at common law than the doctrine of jus soli or citizenship by place of birth.''    The Supreme Court once diverged from this principle in the infamous Dred Scott decision when it denied birthright citizenship to the descendants of slaves. The violent institution of slavery itself was clearly an incredible injustice. In Dred Scott, the Supreme Court found a way to continue that injustice to reinforce the caste system at the heart of slavery, even with respect to children born in this country to freed slaves.    There is no question that the 14th Amendment was adopted and the citizenship clause was included as the very first sentence of that amendment to repudiate Dred Scott and to help us turn the corner of an ugly chapter in our Nation's history. But the clause did not simply say, as it could have, that children born in this country to freed slaves are citizens of this country. Rather, the Framers of the 14th Amendment spoke in general terms, guaranteeing that, ``All persons born or naturalized in the United States and subject to the jurisdiction thereof are citizens of the United States and of the state wherein they reside.''    From the debate in Congress at the time, it is clear that they understood this language to have much broader reach. It is also clear that members were motivated to embed this language in the Constitution precisely because the constitutional right of citizenship would be protected from the caprice of Congress and the prejudices of the day.    Thirty years after the 14th Amendment was ratified, the Supreme Court had occasion to consider whether a child born in this country to Chinese immigrants, who were by law prohibited from naturalizing, was entitled to birthright citizenship. The Supreme Court answered the question in the affirmative with sweeping language that is worth quoting. The court held, ``The 14th Amendment affirms the ancient and fundamental rule of citizenship by birth within the territory in the allegiance and under the protection of the country, including all children here born of resident aliens, with the exceptions or qualifications as old as the rule itself of children of foreign sovereigns or their ministers, or born on foreign public ships, or of the enemies within and during a hostile occupation of part of our territory, and with the single additional exception of children of members of Indian tribes owing direct allegiance to their several tribes.''    A minority view, among legal scholars, holds that Wong Kim Ark speaks only to children of legally present immigrants. The language in the case certainly does not suggest that additional exceptions or qualifications to the fundamental rule of birthright citizenship would apply to children of undocumented immigrants born in this country.    But even if that were true, the Supreme Court in the 1982 case of Plyler v. Doe settled the question. In Plyler, the Court explained that the phrase ``subject to the jurisdiction'' in the citizenship clause applies as comprehensively as the phrase ``within its jurisdiction'' in the equal protection clause and that no plausible distinction with respect to 14th Amendment jurisdiction can be drawn between resident aliens whose entry into the United States was lawful and resident aliens whose entry was unlawful.    So if there really isn't a serious debate among scholars about what the clause means, is the purpose of this hearing really to consider whether the citizenship clause of the 14th Amendment adopted in the aftermath of the Civil War has outlived its usefulness? Can we expect the full Committee to soon take up the question of whether the equal protection clause guarantees too much equality?    In preparing for this hearing, I thought about the Republican Party's history as the party of Lincoln. On the GOP's own Web site, there is a history of the party that proudly marks January 13, 1866, as the day that the 14th Amendment was passed by Congress, ``with unanimous Republican support and against intense Democratic opposition.''    And yet the question we are asked to consider today is whether the passage of the 14th Amendment and the citizenship clause almost 150 years ago was good policy for America.    It is no wonder that when this issue flared up last in 2010 and congressional Republicans voiced their support for legislation and a constitutional amendment to restrict birthright citizenship, prominent Republicans like Mark McKinnon cautioned that, ``The 14th Amendment is a great legacy of the Republican Party; it is a shame and an embarrassment that the GOP now wants to amend it for starkly political reasons.''    Republican leaders in the Senate narrowly avoided debate on this topic just last week when they prevented Senator Vitter from offering a birthright citizenship amendment to a bill on human trafficking. I cannot imagine the Republican leaders in the House are any more interested in bringing this issue to the floor. Actually, it has been 10 years since this Subcommittee last held a hearing on this topic, and I note that one of our witnesses, Professor Eastman, testified before us at that time. Hopefully, all of that means is this will be the last we hear of this issue for quite some time.    And, with that, Mr. Chairman, I would like to ask unanimous consent to place in the record a testimony from the Community Relations Council of the Jewish Federation of Silicon Valley as well as statements from the Leadership Conference on Civil and Human Rights; the American Civil Liberties Union; First Focus Campaign for Children; the National Association of Latino Elected and Appointed Officials; the League of United Latin American Citizens; the Constitutional Accountability Center; Church World Service; Lutheran Immigration and Refugee Services; American Immigration Council; a sign-on letter from 14 national Jewish organizations; the Jewish Council for Public Affairs; Franciscan Action Network; Asian Americans Advancing Justice; American Immigration Lawyers Association; National Council of Asian-Pacific Americans; the National Latina Institute for Reproductive Health; the National Immigration Forum; We Belong Together; the Coalition for Humane Immigrant Rights of Los Angeles; and OCA, the Asian-Pacific American advocate.    [Note: The submitted material is not printed in this hearing record but is on file with the Subcommittee, and may also be accessed at: http://docs.house.gov/Committee/Calendar/ByEvent.aspx?EventID=103384.]</t>
   </si>
   <si>
@@ -85,27 +76,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    I rarely have a conversation about general immigration policy in which the issue of birthright citizenship is not raised, yet it has been several years--nearly 10, I believe--since this Subcommittee has looked at the issue. So I thank the gentleman from South Carolina for holding this hearing.    The discussion is important as we move forward with any reforms to immigration law and policy. Birthright citizenship is the principle that the place of an individual's birth automatically determines that individual's citizenship.    The U.S. policy on birthright citizenship stems from the 14th Amendment to the U.S. Constitution, of which the citizenship clause states that: All persons born or naturalized in the United States and subject to the jurisdiction thereof are citizens of the United States.    Congress subsequently included that language in the statute.    However, as we will hear today, the phrase ``subject to the jurisdiction thereof'' is central to the debate over whether the U.S. Constitution requires that the U.S. adhere to birthright citizenship. It is central to the question of whether the U.S.-born children of unlawful aliens should be considered citizens at birth.    A close look at and discussion of the legislative history of the 14th Amendment, the language of the Civil Rights Act of 1866, and relevant case law, like Elk v. Wilkins and United States v. Wong Kim Ark, are central to the determining the meaning of ``subject to the jurisdiction thereof.''    The question of whether our forefathers meant for birthright citizenship in all circumstances to be the law of the land is far from settled. In any event, we must still determine if it is the right policy for America today.    Very few countries with advanced economies have a policy of birthright citizenship. In fact, of the G20 countries, only the United States, Canada, and Mexico automatically grant citizenship based on the individual being born in the country, despite the citizenship or immigration status of the parents. That is not to say that just because other countries do not have a certain policy or law, the U.S. should not have that policy or law. But, as Members of Congress, we should have an open and honest discussion about the consequences of automatic birthright citizenship.    Evidence suggests that automatic birthright citizenship incentivizes illegal immigration and abuse of U.S. immigration law and policy. And extremely troubling is the rise of the birth tourism phenomenon in which pregnant women from foreign countries briefly come to the U.S. Specifically to give birth here so that their children become U.S. citizens. The women and children then return to their home countries. This is becoming a multimillion dollar business in certain areas of the U.S. where maternity hotels advertise in foreign countries to house pregnant foreign nationals in the U.S. until they give birth. Even if you believe that birthright citizenship is the right policy for the United States--and I do not--but even if you do, such abuse of our generous policy is unacceptable.    I look forward to the witness testimony and the discussion of whether and how to change the U.S. birthright citizenship policy.    And I yield back.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. The Chair thanks the gentleman from Virginia.    Without objection, other Members' opening statements will be made part of the record.    We have a distinguished panel before us.    And I will begin by swearing you in, and then I will introduce you en bloc and then recognize you individually.    So, if you would, please stand and raise your right hand. Do you swear the testimony you are about to give is the truth, the whole truth, and nothing but the truth so help you God?    May the record reflect all witnesses answered in the affirmative.    We will start with Dr. John Eastman. He is the founding director of the Constitutional Jurisprudence Clinic, a public interest law firm affiliated with The Claremont Institute. He also serves as the Henry Salvatori Professor of Law and Community Service at Chapman University Fowler School of Law and also served as the school's dean from 2007 to 2010. Prior to joining the Fowler School of Law faculty, he served as a law clerk for Justice Clarence Thomas at the United States Supreme Court and Judge Michael Luttig of the United States Court of Appeals in the Fourth Circuit. He earned his J.D. From the University of Chicago Law School, where he graduated with high honors.    Next after him will be Professor Lino Graglia--and if I mispronounce anyone's name, forgive me. Professor Graglia serves as the A.W. Walker Centennial Chair in Law at the University of Texas at Austin School of Law. He has been a visiting professor at the University of Virginia School of Law. He has written widely on constitutional law, especially on the judicial review, constitutional interpretation, race discrimination, and affirmative action, and also teaches and writes in the area of antitrust law. He received his J.D. And LL.B. From Columbia University School of Law, where he served as editor of the Law Review, and his B.S. In economics and political science from the City College of New York.    After him will be Mr. Jon Feere. He currently serves as a legal policy analyst for the Center for Immigration Studies. His editorials have appeared in various publications, including U.S. News &amp; World Report and the Washington Times. He received his B.A. In political science and communications from the University of California Davis and his J.D. From America Universities Washington College of Law. While in law school, he worked on this very Subcommittee, which was then known as the Subcommittee on Immigration, Border Security, and Claims.    And, finally, Mr. Richard Cohen, currently serves as the president of Southern Poverty Law Center, where he has worked since 1986 when he joined their staff as its legal director. In this position, Mr. Cohen has litigated a wide variety of important civil rights actions, defending the rights prisoners to be treated humanely and working for equal educational opportunities for all children. He is a graduate of Columbia University and received his J.D. From the University of Virginia School of Law.    Welcome to each of you. The lights mean the same thing they mean traditionally in life. Green, go. Yellow, speed up. Red, go ahead and conclude that thought if you would.    Dr. Eastman.  TESTIMONY OF JOHN C. EASTMAN, Ph.D., FOUNDING DIRECTOR, THE </t>
   </si>
   <si>
-    <t>Eastman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Eastman. Thank you, Mr. Chairman, and all the Members of the Committee. And I am particularly delighted to be here again. I worked closely with now Governor Deal when he was here.    And I am so happy, Representative King, that you are taking up the charge. I think this is an extremely important issue.    Congress has the power over naturalization. It is a plenary power, and that means you get to set the policy of how large or small, how understrained or restrained our restriction--our immigration into this country is going to be. The Founders did that by design because it is an inherently political question.    The question for us is, whether one of the three great magnets to violating or ignoring the policy you set out can be addressed by statute or whether it requires a constitutional amendment. Those three magnets are, of course, an opportunity for a job, employment; access to our huge welfare benefits; and access to the Holy Grail of American citizenship.    Both members that talked about the Constitution's 14th Amendment rightly focused on the phrase ``subject to the jurisdiction.'' If that phrase is not to be entirely redundant, it has to mean something other than being born on U.S. soil, and that something is allegiance. And I think, if you look at the debates in Congress, if you look at the language of the 1866 Civil Rights Act, if you look at the first couple of Supreme Court cases to address this issue and the legal commentators, including the most prominent one at the time, Thomas Cooley, they all recognize that the ``subject to the jurisdiction'' clause meant allegiance-owing.    There were two kinds of jurisdiction that was recognized in international law at the time. One they called mere partial or territorial. The other they called complete or whole jurisdiction. And it is the latter that the 14th Amendment refers to.    The best way I can describe this is to imagine a foreign national, say, from Great Britain who comes to visit the United States as a tourist. When he is here, he is subject to our laws. He drives on the right side of the road rather than the left side of the road as he does at home. But that does not make him subject to our other jurisdiction. He doesn't become a citizen. He doesn't participate in our political process. He can't be tried for treason if he takes up arms against us, although taking up arms would be subject him to other recourse. It is that lack of allegiance that makes him not subject to the jurisdiction in the full and complete sense that was envisioned by the 14th Amendment.    And so, too, today there are people who are here lawfully and permanently who we have recognized as having some extent of allegiance to the United States. And their children will be deemed automatic citizens by virtue of this 14th Amendment. That was the holding and the full extent of the holding of the Wong Kim Ark case in 1898.    Mr. Wong Kim Ark was a child of lawful permanent residents in the United States who had done everything we allowed them to do to demonstrate their allegiance to the United States. They were not here on tourist visas. They were not here as temporary sojourners, to use the language of the day. They were here permanently, had taken up domicile as well as residence in the United States.    And the language that Representative Lofgren quoted from that case, there was a particular phrase in it that she said, ``in the allegiance'' of the United States, the Court held.    That meant it fit within the language of the 14th Amendment in a way that temporary visitors here--temporary visitors who may have come here legally and then overstayed their visa and were now here illegally and certainly temporary visitors who were never here legally in the first place, who never had been granted the consent of the United States to be here, who owed no allegiance to the United States and, in fact, continue to owe allegiance to their home country--their children, through them, owe allegiance to the home country, not to the United States, and are, therefore, not subject to the jurisdiction in that full sense.    That is not only what the Constitution sets out and requires, but it is phenomenally good policy because, otherwise, the fundamental break we made with the old feudal system--that if you were born on the sovereign soil, you shall forever more be a subject of that sovereign--the fundamental break we made with that idea in the Declaration of Independence is we form a body politic by mutual consent. If we are to accept this newfound version of birthright citizenship, that no matter how you get here, how little you have obtained consent for being here, you can demand automatic citizenship, blows a hole through that notion of consent of the governed. And until we get back to the Declaration's understanding of consent that is what creates citizens and what creates a people and a body politic, you will never be able to have any limitations on our immigration policy at all.    I think the various bills that have been proposed over the years clarify that that constitutional language creates a floor, and how far above that floor we want to go is a matter of policy judgment for the Congress.    I would suggest one thing: We have, for the last 40 or 50 years, adopted the notion by piecemeal and by osmosis almost that mere birth on U.S. soil is enough, and a lot of people have come to rely on that. So you might say: Let's get this fixed and clarified going forward, but for those people over the last 50 years who have relied on it, let's grant them citizenship as well retroactively, but let's make clear that that grant of citizenship is pursuant to Congress' naturalization powers, not because it is mandated by the 14th Amendment.    And I think if you do that, you will put on--this body on very clear record of what your understanding of the constitutional floor is.    Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Dr. Eastman.    Professor Graglia.</t>
   </si>
   <si>
-    <t>Graglia</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Graglia. Thank you for inviting me. I am glad to have this opportunity to speak to this important question, though I am not sure I can add much to what Professor Eastman's so very thorough presentation did.    It is difficult to imagine a more irrational and self-defeating legal system than one that makes unauthorized entry into the country a criminal offense and simultaneously provides the greatest possible inducement to illegal entry, a grant of American citizenship. How could such a legal system have come to be and be permitted to continue? The answer, its defenders will tell you, is the Constitution.    As Robert Jackson said in response to such arguments, the Constitution is not a suicide pact. The basis of the constitutional claim of birthright citizenship is, of course, the citizenship clause of the 14th Amendment, which has been read many times. Not anyone born--not everyone born in the United States, therefore, is automatically a citizen, only those subject to the jurisdiction of the United States. So the question becomes, what does that jurisdictional statement mean? How should it be interpreted?    Like any writing or at least any law, it should be interpreted to mean what it was intended to mean by those who adopted it, the ratifiers of the 14th Amendment. They could not have meant to grant birthright citizenship to children of illegal aliens because, for one thing, there were no illegal aliens in 1868 because there were no restrictions on immigration.    The purpose of the 14th Amendment was to constitutionalize the great 1866 Civil Rights Act, our first civil rights statute, which begins with the statement from which the citizenship clause of the 14th Amendment is derived. And that statement is: All persons born in the United States and not subject to any foreign power are hereby declared to be citizens of the United States.    The phrase ``not subject to any foreign power'' would clearly exclude the children of resident aliens, legal as well as illegal. The 14th Amendment citizenship clause substitutes the phrase ``and subject to the jurisdiction thereof,'' but there is no indication of any intent to change the original meaning.    Senators Lyman Trumbull of Illinois and Howard of Ohio, principle authors of the citizenship clause in both the 1866 act and the 14th Amendment, both stated that ``subject to the jurisdiction of the United States'' means not owing allegiance to anybody else, which, again, seems to clearly preclude birthright citizenship for the children of legal resident aliens and, a fortiori, more so of illegal aliens. It appears, therefore, that the Constitution far from requiring the grant of birthright citizenship to the children of illegal aliens is better understood as denying that grant.    In the 1873 Slaughter-House case, the Supreme Court stated, in dicta, that: The phrase ``subject to the jurisdiction thereof'' was intended to exclude from birthright citizenship children of ministers, consuls, and citizens or subjects of foreign states born within the United States.    In 1884, in Elk v. Wilkins, the Court held that a child born to members of an Indian tribe did not have birthright citizenship because, although born in the United States, it was not ``subject to the jurisdiction thereof.''    No one, the Court said, can become a citizen of a Nation without its consent. And there cannot be a more total or forceful denial of consent to a person's citizenship than to make that person's presence in the Nation illegal.    In 1898, however, the Court held in U.S. v. Wong Kim Ark that the citizenship clause granted birthright citizenship to children born in the United States of legal resident aliens. Two dissenting Judges--Justices argued correctly that, ``The rule making the locality of birth the criterion of citizenship is based on ancient English common law that did not survive the American Revolution.''    Every European country, including Great Britain now, has rejected that rule.    Whatever the merits or lack of merit of Wong Kim Ark as to showing of legal residence, it does not settle the question of birthright citizenship as to children of illegal residents or children born of legally admitted aliens who have overstayed their visa. In 1982, however, in Plyler v. Doe, which was mentioned, a 5-to-4 decision, the Court in a footnote interpreted Wong Kim Ark as holding that, ``No plausible distinction can be made between legal and illegal resident aliens.''    That statement cannot settle the matter, however, because it is not only a dictum--it had nothing to do with the case--but it was based on a clearly mistaken understanding of Wong Kim Ark.    The apparent general assumption that the children of illegal aliens have birthright citizenship as a constitutional right is, therefore, clearly subject to challenge. A recent scholarly study of the issue concluded the Framers of the citizenship clause had no intention of establishing a universal rule of birthright citizenship and Congress has the authority to reject that rule.    Judge Richard Posner----</t>
   </si>
   <si>
@@ -118,18 +100,12 @@
     <t xml:space="preserve">    Mr. Gowdy. Thank you. Thank you, Professor.    Now Mr. Feere.</t>
   </si>
   <si>
-    <t>Feere</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Feere. Thank you, Chairman Gowdy, Ranking Member Lofgren, and the distinguished Members of the Subcommittee for allowing me to speak before you today on the very interesting issue of birthright citizenship.    Every year, approximately 350,000 to 400,000 children are born to illegal immigrants in the United States. To put this in perspective, this means that 1 out of 10 births in the U.S. is to an illegal immigrant mother. The executive branch automatically recognizes these children as U.S. citizens, despite the foreign citizenship and illegal status of the parent. And, because the executive branch automatically recognizes them as U.S. citizens, they provide them Social Security numbers and U.S. passports. The same is true of children born to tourists and other aliens who are in the country in a legal status but in a temporary status.    It is unlikely that Congress intended such a broad application of the 14th Amendment citizenship clause. And the Supreme Court has only held that children born to citizens or permanently domiciled immigrants must be considered U.S. citizens at birth. Some clarity from Congress would be helpful in resolving this ongoing debate.    In recent decades, the issue has garnered increased attention for a number of reasons. First is the mass illegal immigration this country has experienced. The population of U.S.-born children with illegal alien parents has expanded rapidly in recent years from 2.7 million in 2003 to 4.5 million by 2010. Under the immigration enforcement priorities of the Obama administration, illegal immigrants who give birth to U.S. citizens have become low priorities for deportation.    Furthermore, the President's DAPA program, Deferred Action for Parents of Americans and Lawful Permanent Residents program, a program currently held up in the courts, would provide benefits to illegal immigrants who give birth here and allow them to ``stay in the U.S. without fear of deportation.'' That is from the Administration. The broad interpretation of the citizenship clause forms the basis for these policies.    Second is the issue of chain migration. A child born to illegal aliens in the United States can initiate a chain of immigration when he reaches the age of 18 and can sponsor an overseas spouse and unmarried children of his own. When he turns 21, he can also sponsor his parents and any brothers or sisters. Approximately two-thirds of our annual immigration flow is family-based. And that's part of the reason, not the entire reason, but part of it. And this number continues to rise every year because of the every expanding migration chains that operate independently of any economic downturn or labor need.    Third, the relatively modern phenomenon of affordable international travel and tourism has increased the opportunity for noncitizens to give birth here, raising questions about the appropriate scope of the citizenship clause. According to the Department of Homeland Security, in 2013, there were 173 million nonimmigrant admissions to the United States. This includes people entering for tourism, business travel, and other reasons, but it also includes those who are engaging in birth tourism, which is a growing phenomenon that has arisen in direct response to our government's broad application of the citizenship clause.    Birth tourism is the practice of people around the world traveling to the United States to give birth for the specific purpose of adding a U.S. passport holder to the family while misrepresenting the true intention of their visit to the United States. An entire birth tourism industry has been created, and the phenomenon has grown largely without any debate in Congress or the consent of the American people. Birth tourism is becoming much more common with every passing year, and I do think at some point Congress will have to address it.    Fourth is the sense among many Americans that the United States is falling behind the global trend on birthright citizenship, as many countries which once had such policies have ended them in recent years. The United States and Canada are the only two advanced economies as rated by the IMF to grant automatic citizenship to children of illegal aliens. For these reasons and others, there has been a bipartisan effort to end birthright citizenship legislatively here, even in Canada as well.    Multiple legislative efforts to clarify the appropriate scope of the citizenship clause have been proposed by both Republican and Democrat politicians as there remains much debate about who should be considered subject to the jurisdiction of the United States. In 1993, Senator Harry Reid, Democrat from Nevada, introduced legislation that would limit birthright citizenship to the children of U.S. citizens and legally resident aliens. And similar bills have entered--been introduced by other legislators in nearly every Congress since, I believe.    Some clarification from Congress on this issue would certainly be welcomed and perfectly appropriate. I would be happy to take any questions on these and other issues. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Feere.    They have called votes. But, Mr. Cohen, I am going to let you give your opening, and then we will recess for votes after that.    Mr. Cohen.</t>
   </si>
   <si>
-    <t>Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, sir.    It's an honor, a great honor to be here today. Birthright citizenship is a core value enshrined in the first sentence of our--of the 14th Amendment. With the exception of children of diplomats, members of Indian tribes, and hostile enemy occupiers, the birthright citizenship clause provides that all children born in this country are citizens entitled to the full blessings of our democracy. The immigration status of their parents is irrelevant.    The view of birthright citizenship that I've just expressed is compelled by the plain language of the 14th Amendment, by its legislative history, and by Supreme Court precedent. Those offering a contrary view must bear a heavy burden of persuasion.    The birthright citizenship clause, as a number of you have noted, provides that all persons born or naturalized into the United States and subject to the jurisdiction thereof are citizens of the United States and the State wherein they reside. On its face, the clause makes no distinction on the basis of one's parents' immigration status. From a commonsensical point of view, children born in this country are subject to the jurisdiction of the state: They must obey our laws. They must pay taxes if they earn income. They can be jailed or removed from their homes and placed in foster homes.    As Professor Graglia noted, Plyler adopted this commonsensical view, although he apparently believes it's wrong.    In the seminal case of Wong Kim Ark, the Supreme Court made it clear that the blessings of birthright citizenship do not turn on the immigration status of one's parents. As this Committee knows, the case concerned the status of someone born in this country to Chinese parents. Under the law at the time, his parents were ineligible for citizenship. The court pointedly noted that the parents were subjects of the Emperor of China. Nevertheless, the court ruled that Wong Kim was subject to the jurisdiction of this country under the 14th Amendment and, therefore, a citizen by virtue of having been born here.    The legislative history of the 14th Amendment powerfully supports this understanding. During the debate of the proposed amendment in the Senate, Senator Cowan focused on gypsies in an effort to persuade his colleagues not to support birthright citizenship. He described gypsies as pariahs. He said that, and this is a quote, ``They were trespassers wherever they go.'' Trespassers. That is about as close as it gets in 1866 to so-called illegal immigrants.    No one in the Senate took issue with Senator Cowan's stereotypic description of gypsies. No one claimed that they were not trespassers. But what other Senators did make clear was that the birthright citizenship clause would confer citizenship on the children of gypsies.    The Supreme Court, in Wong Kim Ark, took note of this fact. The Wong Kim Court emphasized that the 14th Amendment granted--that the 14th Amendment's grant of birthright citizenship is very broad. The Court also emphasized that, while Congress may have plenary authority over immigration, including the authority to legislate against those who were unpopular, it is powerless to limit birthright citizenship by ordinary legislation. The only way that that can be done is by constitutional amendment. That is the course that those who oppose birthright citizenship must pursue.    Let me use one of our cases to illustrate why I hope those who want to change the law are not going to be successful. Recently, we had the privilege of representing a young woman named Wendy Ruiz. She was born in Florida and lived there all her life. Yet the State was denying her the possibility of in-state tuition because she couldn't prove that her parents were here legally. We sued and won the case. And the court, citing Plyler, emphasized that we shouldn't visit this supposed sins of the parents on their children.    Last fall, after attending college, Wendy spoke at the Dexter Avenue Baptist Church. That's the church from which Dr. King and his allies launched the modern civil rights movement. She told a deeply, deeply American story. She talked about the struggles of her farm worker parents. She talked about the determination to get--her determination to get an education. She talked about her dream of becoming a lawyer so she could give back to the community. One day, I hope that she gets to testify before this Committee.    It is simply inconceivable to me that our country would deny the blessings of citizenship to the Wendy Ruizes of the world. Our immigration system may be broken, but we should resist the calls to roll back the constitutional guarantee of birthright citizenship in an effort to fix it. The clause expresses a fundamental principle of our democracy that there are no second-class citizens, that all persons born in this country, regardless of the status of their parents, are equal citizens under the law.    I appreciate it, Mr. Chairman. I look forward to your questions.</t>
   </si>
   <si>
@@ -229,9 +205,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. I object.</t>
   </si>
   <si>
@@ -364,9 +337,6 @@
     <t xml:space="preserve">    Mr. King. The gentleman's time has expired.    The Chair will recognize the gentleman from Illinois, Mr. Gutierrez, for 5 minutes.</t>
   </si>
   <si>
-    <t>Gutierrez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gutierrez. Thank you very much.    Mr. Graglia, I'd like to ask you, in 2012, you made some comments that raised a lot of eyebrows explaining why you feel African American citizens are not competitive in college admittance, you told a BBC reporter, I quote: ``I can hardly imagine a less beneficial or more deleterious experience than to be raised by a single parent, usually a female, uneducated and without a lot of money.''    Things turned personal when the reporter told you that since he was Black and was raised in a single-parent family, you are saying the less ``likely'' not as smart as a White person of the same age.    In response you said, ``Well, from listening to you and knowing what you are and what you've done, I'd say you're rather more smart. My guess would be that you are above usual smartness for White, to say nothing of Black.''    Can you explain to us that comment?</t>
   </si>
   <si>
@@ -439,9 +409,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. I would like to know----</t>
   </si>
   <si>
@@ -529,9 +496,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Thank you, Mr. King. Thank you for presiding at this time.    Let me thank the Ranking Member for her presence and leadership on these very important issues.    First of all, let me welcome Mr. Cohen. We've spent a lot of good time together. Thank you for enormous leadership on any number of important issues.</t>
   </si>
   <si>
@@ -608,9 +572,6 @@
   </si>
   <si>
     <t>412653</t>
-  </si>
-  <si>
-    <t>John Ratcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman.    I'd like to thank the witnesses for being here today to talk about this very important issue. The 700,000 Texans that I have the opportunity to represent, like most Americans, are deeply concerned about the impacts of illegal immigration in this country.    Before coming to Congress, I had the opportunity to serve many of these same constituents in my role as the United States attorney for the Eastern District of Texas. Back in April of 2008 in that role, I arrested some 300 illegal aliens that had committed Social Security fraud and identity theft against hard-working Americans. Now, my actions in that regard were not a matter of choice. I had taken an oath to faithfully execute the laws of the United States. That, by the way, is the same oath that the President takes, to faithfully execute the laws of the United States.    And so many of my constituents are frustrated with what they are seeing right now as a willful disregard for the rule of law in this--in this country. And, given that broader context, my constituents are concerned that the 14th Amendment that we're talking about today, the citizenship clause of the Constitution, is interpreted in a way that gives children of illegal aliens citizenship at birth.    So many of the folks that I represent feel that the current policy encourages folks to come to the United States solely for that purpose, and there is ample evidence out there of this fact. Just back in March, the Wall Street Journal reported that Federal agents had raided several sites in California that were connected to different multimillion dollar birth tourism businesses or anchor baby businesses. And I think Mr. Eastman, I believe, or maybe Mr. Ferre talked about the fact that this is an industry where maybe 350,000 to 400,000 children are being born to illegal immigrants in the United States, and that just really brings this issue into focus for so many.    So I'd like to start, Mister--Dr. Eastman, with a question for you. I've understood your testimony to be here today the same as Mr. Graglia and Mr. Feere that Congress does have, in your opinion, the ability to deal with this issue statutorily, as Mr. King would like to do, as opposed to requiring a constitutional amendment. Is that correct?</t>
@@ -1075,11 +1036,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1099,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1127,11 +1084,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1151,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1179,11 +1132,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1203,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1231,11 +1180,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1255,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1283,11 +1228,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1307,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1335,11 +1276,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1359,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1387,11 +1324,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1411,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1439,11 +1372,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1463,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1491,11 +1420,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1517,11 +1444,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1541,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1569,11 +1492,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1593,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1621,11 +1540,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1645,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1673,11 +1588,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1697,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1725,11 +1636,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1749,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1777,11 +1684,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1801,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1827,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1853,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1879,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1905,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1931,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1957,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1983,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2009,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2035,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2061,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2087,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2113,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2139,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2165,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2191,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2217,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2243,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2269,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2295,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2321,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2347,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2373,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2399,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2425,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2451,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2477,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2503,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
         <v>71</v>
-      </c>
-      <c r="H57" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2529,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2555,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2581,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2607,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2633,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2659,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>70</v>
-      </c>
-      <c r="G63" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2685,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2711,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2737,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2763,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2789,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2815,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2841,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2867,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>70</v>
-      </c>
-      <c r="G71" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2893,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2919,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>70</v>
-      </c>
-      <c r="G73" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2945,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2971,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>70</v>
-      </c>
-      <c r="G75" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2997,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3023,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>70</v>
-      </c>
-      <c r="G77" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3049,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3075,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>70</v>
-      </c>
-      <c r="G79" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3101,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3127,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>70</v>
-      </c>
-      <c r="G81" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3153,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3179,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>70</v>
-      </c>
-      <c r="G83" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3205,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3231,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>70</v>
-      </c>
-      <c r="G85" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3257,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3283,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>70</v>
-      </c>
-      <c r="G87" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3309,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3335,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>70</v>
-      </c>
-      <c r="G89" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3361,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3387,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>70</v>
-      </c>
-      <c r="G91" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3413,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3439,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3465,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3491,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3517,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3543,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3569,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3595,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3621,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3647,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3673,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3699,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3725,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3751,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3777,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3803,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3829,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3855,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3881,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3907,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3933,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3959,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3985,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4011,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4037,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>140</v>
-      </c>
-      <c r="G116" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4063,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4089,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>140</v>
-      </c>
-      <c r="G118" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4115,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4141,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4167,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4193,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4219,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4245,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4271,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4297,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4323,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4349,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4375,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4401,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4427,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>140</v>
-      </c>
-      <c r="G131" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4453,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4479,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4505,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4531,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>140</v>
-      </c>
-      <c r="G135" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4557,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4583,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>140</v>
-      </c>
-      <c r="G137" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4609,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4635,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>140</v>
-      </c>
-      <c r="G139" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4661,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4687,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>140</v>
-      </c>
-      <c r="G141" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4713,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4739,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>140</v>
-      </c>
-      <c r="G143" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4765,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4791,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>170</v>
-      </c>
-      <c r="G145" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4817,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4843,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>170</v>
-      </c>
-      <c r="G147" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4869,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4895,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>170</v>
-      </c>
-      <c r="G149" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4921,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4947,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>170</v>
-      </c>
-      <c r="G151" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4973,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4999,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>170</v>
-      </c>
-      <c r="G153" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5025,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5051,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>170</v>
-      </c>
-      <c r="G155" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5077,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5103,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>170</v>
-      </c>
-      <c r="G157" t="s">
+        <v>159</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
         <v>171</v>
-      </c>
-      <c r="H157" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5129,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5155,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>170</v>
-      </c>
-      <c r="G159" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5181,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5207,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G161" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5233,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5259,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>170</v>
-      </c>
-      <c r="G163" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5285,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5311,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>170</v>
-      </c>
-      <c r="G165" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5337,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>22</v>
-      </c>
-      <c r="G166" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5363,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>170</v>
-      </c>
-      <c r="G167" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5389,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5415,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>170</v>
-      </c>
-      <c r="G169" t="s">
-        <v>171</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5441,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5467,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>197</v>
-      </c>
-      <c r="G171" t="s">
-        <v>198</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5493,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5519,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>197</v>
-      </c>
-      <c r="G173" t="s">
-        <v>198</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5545,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5571,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>197</v>
-      </c>
-      <c r="G175" t="s">
-        <v>198</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5597,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5623,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>197</v>
-      </c>
-      <c r="G177" t="s">
-        <v>198</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5649,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5675,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>197</v>
-      </c>
-      <c r="G179" t="s">
-        <v>198</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5701,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5727,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5753,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5779,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5805,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5831,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5857,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5883,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5909,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5935,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5961,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5987,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6013,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
-      </c>
-      <c r="G192" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94409.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94409.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412473</t>
   </si>
   <si>
+    <t>Gowdy</t>
+  </si>
+  <si>
+    <t>Trey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gowdy. The Subcommittee on Immigration and Border Security. This is a hearing on ``Birthright Citizenship: Is It the Right Policy for America?''    And I would say, at the outset, to my colleagues and to our witnesses, I have a meeting that is going to regrettably take me away. So, at some point, I am going to turn the gavel over, but I want to thank you--because I won't be here at the end--and thank you for participating in this and thank my colleagues as well.    The Subcommittee on Immigration and Border Security will come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time.    We welcome everyone. And the other administrative note is we are expecting votes in the not too distant future, so we will need to go vote, and then the Members that are able to do so will then come back. And we apologize in advance for any inconvenience, but there is no way to avoid that.    At this point, I will recognize myself for an opening statement only to say that this is an interesting and important topic.    And, with that, I will yield to the gentleman from Iowa, Mr. King.</t>
   </si>
   <si>
     <t>400220</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    I appreciate you yielding for the purposes of this opening statement. And I would like to raise these points at the beginning of this hearing, that this topic of birthright citizenship is something that I have worked on for some time. I want to give some credit to the now Governor of Georgia, Nathan Deal, who used to be the one that was leading on this topic. And when he went back to Georgia, somebody had to pick up the ball and go with it. It is myself in the House primarily, with a lot of colleagues working together. And also Senator Vitter on the other side is the--is leading on a very similar bill that I am speaking to and not exactly that--as a component of the subject here that is before us.    And the 14th Amendment of the Constitution says that all persons born in the United States and subject to the jurisdiction thereof are citizens of the United States and the State where they reside. And that little troublesome clause in there, ``subject to the jurisdiction thereof,'' is the subject of our discussion here in this--in this hearing today in that and the policies that flow from it.    And for those who argue that the physical birth of a baby on U.S. soil is an automatic grant of citizenship by policy, by Constitution, by statute, I believe, are uttering an ungrounded statement in that that clause, that troublesome clause of ``subject to the jurisdiction thereof'' defined it differently for clear reasons.    And, that is, that if I look at the quotes from a number of U.S. Senators who debated this topic back in 1865 and 1866--the 14th Amendment was ratified finally in 1868--the lead Senator on this, one of the authors, Senator Jacob Howard said this: This will not, of course, include persons born in the United States who are foreigners or aliens, who belong to the families of ambassadors or foreign ministers accredited to the Government of the United States, but will include every other class of persons.    And the purpose, of course, of the 14th Amendment was to guarantee that the babies born to the freed slaves would be citizens of the United States.    The specificity in the clause was debated fairly thoroughly in the United States Congress, and it was there because there were Native Americans, called Indians under this--under the statute then and the amendments then, who would lose their membership in the tribe if they were granted automatic citizenship. So the clause was carefully targeted to make sure that African American babies born in America were citizens, just as those--just as those newly freed slaves were. They became citizens under the 13th Amendment of the Constitution. It.    Did not contemplate that anyone who could sneak into the United States and have a baby would be conferred automatic citizenship on that baby. That is a practice that has evolved, not a law that has been passed, not a provision within the Constitution anywhere, including in the 14th Amendment. So we will get deeper into this definition of the ``subject to the jurisdiction thereof.''    This will be, if this bill is passed and becomes law--I don't think there is any doubt it will be litigated. I look forward to that litigation. I think an objective court that would review the documents that build to this point has to conclude the same thing that I have.    This is also something that flows from the Dred Scott decision that said that African Americans could never be citizens in the United States. That is the biggest reason that--well, it is one of the two big reasons for the Civil war. It is still debatable as to which is the biggest reason, I might point out. But it is the reason for the 13th Amendment and the 14th Amendment to correct Dred Scott. And so it corrected it, and then we started this practice, so--and to protect Native Americans.    So the illegal parents, are they going to decide, or are we going to decide as representatives of the people of the United States of America? And I suggest that it is our job here as Congress to decide who will be citizens, not someone in a foreign country that can sneak into the United States and have a baby and then go home with a birth certificate.    By the way, birthright--birth tourism has grown substantially. We had a hearing on this some years ago. The turnkey price for a Chinese pregnant woman to fly to the United States and check into a hotel, go through the maternity process, have a baby, get the birth certificate, take the baby back to China was $30,000 in that testimony several years ago, that price has gone up to $40,000 to $80,000. However, they still attest that they can't pay for their medical bills. And so we, the taxpayers, fund that.    Also, the numbers of birth tourism were then 700 and--340,000 to 750,000. That is my recollection from that testimony. And today, I think, we are going to hear maybe 300,000 to 400,000 babies born automatically in America.    There is a lot of data to flow out here. The objective thing for us to do is set the policy like almost every other industrialized country in the world has done. I encourage that we do that.    I thank the Chairman. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400245</t>
   </si>
   <si>
+    <t>Lofgren</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman.    Earlier this month, the House Committee on Science, Space, and Technology, where I also serve, held a hearing to cast doubt on global warming science. Never mind the overwhelming consensus in the scientific community that humans are contributing to climate change. Never mind the evidence that rapidly increasing greenhouse gas emissions are disrupting life all over the world. Rather than working to develop and support innovative methods of combatting climate change, the Science Committee held another hearing to debate whether established science is real.    I can't help but think that today's hearing is a similarly fruitless effort. The question that we are asked to consider is whether birthright citizenship is the right policy for America. I think the answer is clearly yes and that, in fact, no other policy would be worthy of this country.    The origins of birthright citizenship long predate the 14th Amendment. Supreme Court Justice Joseph Story said early on that, ``Nothing is better settled at common law than the doctrine of jus soli or citizenship by place of birth.''    The Supreme Court once diverged from this principle in the infamous Dred Scott decision when it denied birthright citizenship to the descendants of slaves. The violent institution of slavery itself was clearly an incredible injustice. In Dred Scott, the Supreme Court found a way to continue that injustice to reinforce the caste system at the heart of slavery, even with respect to children born in this country to freed slaves.    There is no question that the 14th Amendment was adopted and the citizenship clause was included as the very first sentence of that amendment to repudiate Dred Scott and to help us turn the corner of an ugly chapter in our Nation's history. But the clause did not simply say, as it could have, that children born in this country to freed slaves are citizens of this country. Rather, the Framers of the 14th Amendment spoke in general terms, guaranteeing that, ``All persons born or naturalized in the United States and subject to the jurisdiction thereof are citizens of the United States and of the state wherein they reside.''    From the debate in Congress at the time, it is clear that they understood this language to have much broader reach. It is also clear that members were motivated to embed this language in the Constitution precisely because the constitutional right of citizenship would be protected from the caprice of Congress and the prejudices of the day.    Thirty years after the 14th Amendment was ratified, the Supreme Court had occasion to consider whether a child born in this country to Chinese immigrants, who were by law prohibited from naturalizing, was entitled to birthright citizenship. The Supreme Court answered the question in the affirmative with sweeping language that is worth quoting. The court held, ``The 14th Amendment affirms the ancient and fundamental rule of citizenship by birth within the territory in the allegiance and under the protection of the country, including all children here born of resident aliens, with the exceptions or qualifications as old as the rule itself of children of foreign sovereigns or their ministers, or born on foreign public ships, or of the enemies within and during a hostile occupation of part of our territory, and with the single additional exception of children of members of Indian tribes owing direct allegiance to their several tribes.''    A minority view, among legal scholars, holds that Wong Kim Ark speaks only to children of legally present immigrants. The language in the case certainly does not suggest that additional exceptions or qualifications to the fundamental rule of birthright citizenship would apply to children of undocumented immigrants born in this country.    But even if that were true, the Supreme Court in the 1982 case of Plyler v. Doe settled the question. In Plyler, the Court explained that the phrase ``subject to the jurisdiction'' in the citizenship clause applies as comprehensively as the phrase ``within its jurisdiction'' in the equal protection clause and that no plausible distinction with respect to 14th Amendment jurisdiction can be drawn between resident aliens whose entry into the United States was lawful and resident aliens whose entry was unlawful.    So if there really isn't a serious debate among scholars about what the clause means, is the purpose of this hearing really to consider whether the citizenship clause of the 14th Amendment adopted in the aftermath of the Civil War has outlived its usefulness? Can we expect the full Committee to soon take up the question of whether the equal protection clause guarantees too much equality?    In preparing for this hearing, I thought about the Republican Party's history as the party of Lincoln. On the GOP's own Web site, there is a history of the party that proudly marks January 13, 1866, as the day that the 14th Amendment was passed by Congress, ``with unanimous Republican support and against intense Democratic opposition.''    And yet the question we are asked to consider today is whether the passage of the 14th Amendment and the citizenship clause almost 150 years ago was good policy for America.    It is no wonder that when this issue flared up last in 2010 and congressional Republicans voiced their support for legislation and a constitutional amendment to restrict birthright citizenship, prominent Republicans like Mark McKinnon cautioned that, ``The 14th Amendment is a great legacy of the Republican Party; it is a shame and an embarrassment that the GOP now wants to amend it for starkly political reasons.''    Republican leaders in the Senate narrowly avoided debate on this topic just last week when they prevented Senator Vitter from offering a birthright citizenship amendment to a bill on human trafficking. I cannot imagine the Republican leaders in the House are any more interested in bringing this issue to the floor. Actually, it has been 10 years since this Subcommittee last held a hearing on this topic, and I note that one of our witnesses, Professor Eastman, testified before us at that time. Hopefully, all of that means is this will be the last we hear of this issue for quite some time.    And, with that, Mr. Chairman, I would like to ask unanimous consent to place in the record a testimony from the Community Relations Council of the Jewish Federation of Silicon Valley as well as statements from the Leadership Conference on Civil and Human Rights; the American Civil Liberties Union; First Focus Campaign for Children; the National Association of Latino Elected and Appointed Officials; the League of United Latin American Citizens; the Constitutional Accountability Center; Church World Service; Lutheran Immigration and Refugee Services; American Immigration Council; a sign-on letter from 14 national Jewish organizations; the Jewish Council for Public Affairs; Franciscan Action Network; Asian Americans Advancing Justice; American Immigration Lawyers Association; National Council of Asian-Pacific Americans; the National Latina Institute for Reproductive Health; the National Immigration Forum; We Belong Together; the Coalition for Humane Immigrant Rights of Los Angeles; and OCA, the Asian-Pacific American advocate.    [Note: The submitted material is not printed in this hearing record but is on file with the Subcommittee, and may also be accessed at: http://docs.house.gov/Committee/Calendar/ByEvent.aspx?EventID=103384.]</t>
   </si>
   <si>
@@ -76,18 +97,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    I rarely have a conversation about general immigration policy in which the issue of birthright citizenship is not raised, yet it has been several years--nearly 10, I believe--since this Subcommittee has looked at the issue. So I thank the gentleman from South Carolina for holding this hearing.    The discussion is important as we move forward with any reforms to immigration law and policy. Birthright citizenship is the principle that the place of an individual's birth automatically determines that individual's citizenship.    The U.S. policy on birthright citizenship stems from the 14th Amendment to the U.S. Constitution, of which the citizenship clause states that: All persons born or naturalized in the United States and subject to the jurisdiction thereof are citizens of the United States.    Congress subsequently included that language in the statute.    However, as we will hear today, the phrase ``subject to the jurisdiction thereof'' is central to the debate over whether the U.S. Constitution requires that the U.S. adhere to birthright citizenship. It is central to the question of whether the U.S.-born children of unlawful aliens should be considered citizens at birth.    A close look at and discussion of the legislative history of the 14th Amendment, the language of the Civil Rights Act of 1866, and relevant case law, like Elk v. Wilkins and United States v. Wong Kim Ark, are central to the determining the meaning of ``subject to the jurisdiction thereof.''    The question of whether our forefathers meant for birthright citizenship in all circumstances to be the law of the land is far from settled. In any event, we must still determine if it is the right policy for America today.    Very few countries with advanced economies have a policy of birthright citizenship. In fact, of the G20 countries, only the United States, Canada, and Mexico automatically grant citizenship based on the individual being born in the country, despite the citizenship or immigration status of the parents. That is not to say that just because other countries do not have a certain policy or law, the U.S. should not have that policy or law. But, as Members of Congress, we should have an open and honest discussion about the consequences of automatic birthright citizenship.    Evidence suggests that automatic birthright citizenship incentivizes illegal immigration and abuse of U.S. immigration law and policy. And extremely troubling is the rise of the birth tourism phenomenon in which pregnant women from foreign countries briefly come to the U.S. Specifically to give birth here so that their children become U.S. citizens. The women and children then return to their home countries. This is becoming a multimillion dollar business in certain areas of the U.S. where maternity hotels advertise in foreign countries to house pregnant foreign nationals in the U.S. until they give birth. Even if you believe that birthright citizenship is the right policy for the United States--and I do not--but even if you do, such abuse of our generous policy is unacceptable.    I look forward to the witness testimony and the discussion of whether and how to change the U.S. birthright citizenship policy.    And I yield back.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. The Chair thanks the gentleman from Virginia.    Without objection, other Members' opening statements will be made part of the record.    We have a distinguished panel before us.    And I will begin by swearing you in, and then I will introduce you en bloc and then recognize you individually.    So, if you would, please stand and raise your right hand. Do you swear the testimony you are about to give is the truth, the whole truth, and nothing but the truth so help you God?    May the record reflect all witnesses answered in the affirmative.    We will start with Dr. John Eastman. He is the founding director of the Constitutional Jurisprudence Clinic, a public interest law firm affiliated with The Claremont Institute. He also serves as the Henry Salvatori Professor of Law and Community Service at Chapman University Fowler School of Law and also served as the school's dean from 2007 to 2010. Prior to joining the Fowler School of Law faculty, he served as a law clerk for Justice Clarence Thomas at the United States Supreme Court and Judge Michael Luttig of the United States Court of Appeals in the Fourth Circuit. He earned his J.D. From the University of Chicago Law School, where he graduated with high honors.    Next after him will be Professor Lino Graglia--and if I mispronounce anyone's name, forgive me. Professor Graglia serves as the A.W. Walker Centennial Chair in Law at the University of Texas at Austin School of Law. He has been a visiting professor at the University of Virginia School of Law. He has written widely on constitutional law, especially on the judicial review, constitutional interpretation, race discrimination, and affirmative action, and also teaches and writes in the area of antitrust law. He received his J.D. And LL.B. From Columbia University School of Law, where he served as editor of the Law Review, and his B.S. In economics and political science from the City College of New York.    After him will be Mr. Jon Feere. He currently serves as a legal policy analyst for the Center for Immigration Studies. His editorials have appeared in various publications, including U.S. News &amp; World Report and the Washington Times. He received his B.A. In political science and communications from the University of California Davis and his J.D. From America Universities Washington College of Law. While in law school, he worked on this very Subcommittee, which was then known as the Subcommittee on Immigration, Border Security, and Claims.    And, finally, Mr. Richard Cohen, currently serves as the president of Southern Poverty Law Center, where he has worked since 1986 when he joined their staff as its legal director. In this position, Mr. Cohen has litigated a wide variety of important civil rights actions, defending the rights prisoners to be treated humanely and working for equal educational opportunities for all children. He is a graduate of Columbia University and received his J.D. From the University of Virginia School of Law.    Welcome to each of you. The lights mean the same thing they mean traditionally in life. Green, go. Yellow, speed up. Red, go ahead and conclude that thought if you would.    Dr. Eastman.  TESTIMONY OF JOHN C. EASTMAN, Ph.D., FOUNDING DIRECTOR, THE </t>
   </si>
   <si>
+    <t>Eastman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Eastman. Thank you, Mr. Chairman, and all the Members of the Committee. And I am particularly delighted to be here again. I worked closely with now Governor Deal when he was here.    And I am so happy, Representative King, that you are taking up the charge. I think this is an extremely important issue.    Congress has the power over naturalization. It is a plenary power, and that means you get to set the policy of how large or small, how understrained or restrained our restriction--our immigration into this country is going to be. The Founders did that by design because it is an inherently political question.    The question for us is, whether one of the three great magnets to violating or ignoring the policy you set out can be addressed by statute or whether it requires a constitutional amendment. Those three magnets are, of course, an opportunity for a job, employment; access to our huge welfare benefits; and access to the Holy Grail of American citizenship.    Both members that talked about the Constitution's 14th Amendment rightly focused on the phrase ``subject to the jurisdiction.'' If that phrase is not to be entirely redundant, it has to mean something other than being born on U.S. soil, and that something is allegiance. And I think, if you look at the debates in Congress, if you look at the language of the 1866 Civil Rights Act, if you look at the first couple of Supreme Court cases to address this issue and the legal commentators, including the most prominent one at the time, Thomas Cooley, they all recognize that the ``subject to the jurisdiction'' clause meant allegiance-owing.    There were two kinds of jurisdiction that was recognized in international law at the time. One they called mere partial or territorial. The other they called complete or whole jurisdiction. And it is the latter that the 14th Amendment refers to.    The best way I can describe this is to imagine a foreign national, say, from Great Britain who comes to visit the United States as a tourist. When he is here, he is subject to our laws. He drives on the right side of the road rather than the left side of the road as he does at home. But that does not make him subject to our other jurisdiction. He doesn't become a citizen. He doesn't participate in our political process. He can't be tried for treason if he takes up arms against us, although taking up arms would be subject him to other recourse. It is that lack of allegiance that makes him not subject to the jurisdiction in the full and complete sense that was envisioned by the 14th Amendment.    And so, too, today there are people who are here lawfully and permanently who we have recognized as having some extent of allegiance to the United States. And their children will be deemed automatic citizens by virtue of this 14th Amendment. That was the holding and the full extent of the holding of the Wong Kim Ark case in 1898.    Mr. Wong Kim Ark was a child of lawful permanent residents in the United States who had done everything we allowed them to do to demonstrate their allegiance to the United States. They were not here on tourist visas. They were not here as temporary sojourners, to use the language of the day. They were here permanently, had taken up domicile as well as residence in the United States.    And the language that Representative Lofgren quoted from that case, there was a particular phrase in it that she said, ``in the allegiance'' of the United States, the Court held.    That meant it fit within the language of the 14th Amendment in a way that temporary visitors here--temporary visitors who may have come here legally and then overstayed their visa and were now here illegally and certainly temporary visitors who were never here legally in the first place, who never had been granted the consent of the United States to be here, who owed no allegiance to the United States and, in fact, continue to owe allegiance to their home country--their children, through them, owe allegiance to the home country, not to the United States, and are, therefore, not subject to the jurisdiction in that full sense.    That is not only what the Constitution sets out and requires, but it is phenomenally good policy because, otherwise, the fundamental break we made with the old feudal system--that if you were born on the sovereign soil, you shall forever more be a subject of that sovereign--the fundamental break we made with that idea in the Declaration of Independence is we form a body politic by mutual consent. If we are to accept this newfound version of birthright citizenship, that no matter how you get here, how little you have obtained consent for being here, you can demand automatic citizenship, blows a hole through that notion of consent of the governed. And until we get back to the Declaration's understanding of consent that is what creates citizens and what creates a people and a body politic, you will never be able to have any limitations on our immigration policy at all.    I think the various bills that have been proposed over the years clarify that that constitutional language creates a floor, and how far above that floor we want to go is a matter of policy judgment for the Congress.    I would suggest one thing: We have, for the last 40 or 50 years, adopted the notion by piecemeal and by osmosis almost that mere birth on U.S. soil is enough, and a lot of people have come to rely on that. So you might say: Let's get this fixed and clarified going forward, but for those people over the last 50 years who have relied on it, let's grant them citizenship as well retroactively, but let's make clear that that grant of citizenship is pursuant to Congress' naturalization powers, not because it is mandated by the 14th Amendment.    And I think if you do that, you will put on--this body on very clear record of what your understanding of the constitutional floor is.    Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Dr. Eastman.    Professor Graglia.</t>
   </si>
   <si>
+    <t>Graglia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Graglia. Thank you for inviting me. I am glad to have this opportunity to speak to this important question, though I am not sure I can add much to what Professor Eastman's so very thorough presentation did.    It is difficult to imagine a more irrational and self-defeating legal system than one that makes unauthorized entry into the country a criminal offense and simultaneously provides the greatest possible inducement to illegal entry, a grant of American citizenship. How could such a legal system have come to be and be permitted to continue? The answer, its defenders will tell you, is the Constitution.    As Robert Jackson said in response to such arguments, the Constitution is not a suicide pact. The basis of the constitutional claim of birthright citizenship is, of course, the citizenship clause of the 14th Amendment, which has been read many times. Not anyone born--not everyone born in the United States, therefore, is automatically a citizen, only those subject to the jurisdiction of the United States. So the question becomes, what does that jurisdictional statement mean? How should it be interpreted?    Like any writing or at least any law, it should be interpreted to mean what it was intended to mean by those who adopted it, the ratifiers of the 14th Amendment. They could not have meant to grant birthright citizenship to children of illegal aliens because, for one thing, there were no illegal aliens in 1868 because there were no restrictions on immigration.    The purpose of the 14th Amendment was to constitutionalize the great 1866 Civil Rights Act, our first civil rights statute, which begins with the statement from which the citizenship clause of the 14th Amendment is derived. And that statement is: All persons born in the United States and not subject to any foreign power are hereby declared to be citizens of the United States.    The phrase ``not subject to any foreign power'' would clearly exclude the children of resident aliens, legal as well as illegal. The 14th Amendment citizenship clause substitutes the phrase ``and subject to the jurisdiction thereof,'' but there is no indication of any intent to change the original meaning.    Senators Lyman Trumbull of Illinois and Howard of Ohio, principle authors of the citizenship clause in both the 1866 act and the 14th Amendment, both stated that ``subject to the jurisdiction of the United States'' means not owing allegiance to anybody else, which, again, seems to clearly preclude birthright citizenship for the children of legal resident aliens and, a fortiori, more so of illegal aliens. It appears, therefore, that the Constitution far from requiring the grant of birthright citizenship to the children of illegal aliens is better understood as denying that grant.    In the 1873 Slaughter-House case, the Supreme Court stated, in dicta, that: The phrase ``subject to the jurisdiction thereof'' was intended to exclude from birthright citizenship children of ministers, consuls, and citizens or subjects of foreign states born within the United States.    In 1884, in Elk v. Wilkins, the Court held that a child born to members of an Indian tribe did not have birthright citizenship because, although born in the United States, it was not ``subject to the jurisdiction thereof.''    No one, the Court said, can become a citizen of a Nation without its consent. And there cannot be a more total or forceful denial of consent to a person's citizenship than to make that person's presence in the Nation illegal.    In 1898, however, the Court held in U.S. v. Wong Kim Ark that the citizenship clause granted birthright citizenship to children born in the United States of legal resident aliens. Two dissenting Judges--Justices argued correctly that, ``The rule making the locality of birth the criterion of citizenship is based on ancient English common law that did not survive the American Revolution.''    Every European country, including Great Britain now, has rejected that rule.    Whatever the merits or lack of merit of Wong Kim Ark as to showing of legal residence, it does not settle the question of birthright citizenship as to children of illegal residents or children born of legally admitted aliens who have overstayed their visa. In 1982, however, in Plyler v. Doe, which was mentioned, a 5-to-4 decision, the Court in a footnote interpreted Wong Kim Ark as holding that, ``No plausible distinction can be made between legal and illegal resident aliens.''    That statement cannot settle the matter, however, because it is not only a dictum--it had nothing to do with the case--but it was based on a clearly mistaken understanding of Wong Kim Ark.    The apparent general assumption that the children of illegal aliens have birthright citizenship as a constitutional right is, therefore, clearly subject to challenge. A recent scholarly study of the issue concluded the Framers of the citizenship clause had no intention of establishing a universal rule of birthright citizenship and Congress has the authority to reject that rule.    Judge Richard Posner----</t>
   </si>
   <si>
@@ -100,12 +130,18 @@
     <t xml:space="preserve">    Mr. Gowdy. Thank you. Thank you, Professor.    Now Mr. Feere.</t>
   </si>
   <si>
+    <t>Feere</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Feere. Thank you, Chairman Gowdy, Ranking Member Lofgren, and the distinguished Members of the Subcommittee for allowing me to speak before you today on the very interesting issue of birthright citizenship.    Every year, approximately 350,000 to 400,000 children are born to illegal immigrants in the United States. To put this in perspective, this means that 1 out of 10 births in the U.S. is to an illegal immigrant mother. The executive branch automatically recognizes these children as U.S. citizens, despite the foreign citizenship and illegal status of the parent. And, because the executive branch automatically recognizes them as U.S. citizens, they provide them Social Security numbers and U.S. passports. The same is true of children born to tourists and other aliens who are in the country in a legal status but in a temporary status.    It is unlikely that Congress intended such a broad application of the 14th Amendment citizenship clause. And the Supreme Court has only held that children born to citizens or permanently domiciled immigrants must be considered U.S. citizens at birth. Some clarity from Congress would be helpful in resolving this ongoing debate.    In recent decades, the issue has garnered increased attention for a number of reasons. First is the mass illegal immigration this country has experienced. The population of U.S.-born children with illegal alien parents has expanded rapidly in recent years from 2.7 million in 2003 to 4.5 million by 2010. Under the immigration enforcement priorities of the Obama administration, illegal immigrants who give birth to U.S. citizens have become low priorities for deportation.    Furthermore, the President's DAPA program, Deferred Action for Parents of Americans and Lawful Permanent Residents program, a program currently held up in the courts, would provide benefits to illegal immigrants who give birth here and allow them to ``stay in the U.S. without fear of deportation.'' That is from the Administration. The broad interpretation of the citizenship clause forms the basis for these policies.    Second is the issue of chain migration. A child born to illegal aliens in the United States can initiate a chain of immigration when he reaches the age of 18 and can sponsor an overseas spouse and unmarried children of his own. When he turns 21, he can also sponsor his parents and any brothers or sisters. Approximately two-thirds of our annual immigration flow is family-based. And that's part of the reason, not the entire reason, but part of it. And this number continues to rise every year because of the every expanding migration chains that operate independently of any economic downturn or labor need.    Third, the relatively modern phenomenon of affordable international travel and tourism has increased the opportunity for noncitizens to give birth here, raising questions about the appropriate scope of the citizenship clause. According to the Department of Homeland Security, in 2013, there were 173 million nonimmigrant admissions to the United States. This includes people entering for tourism, business travel, and other reasons, but it also includes those who are engaging in birth tourism, which is a growing phenomenon that has arisen in direct response to our government's broad application of the citizenship clause.    Birth tourism is the practice of people around the world traveling to the United States to give birth for the specific purpose of adding a U.S. passport holder to the family while misrepresenting the true intention of their visit to the United States. An entire birth tourism industry has been created, and the phenomenon has grown largely without any debate in Congress or the consent of the American people. Birth tourism is becoming much more common with every passing year, and I do think at some point Congress will have to address it.    Fourth is the sense among many Americans that the United States is falling behind the global trend on birthright citizenship, as many countries which once had such policies have ended them in recent years. The United States and Canada are the only two advanced economies as rated by the IMF to grant automatic citizenship to children of illegal aliens. For these reasons and others, there has been a bipartisan effort to end birthright citizenship legislatively here, even in Canada as well.    Multiple legislative efforts to clarify the appropriate scope of the citizenship clause have been proposed by both Republican and Democrat politicians as there remains much debate about who should be considered subject to the jurisdiction of the United States. In 1993, Senator Harry Reid, Democrat from Nevada, introduced legislation that would limit birthright citizenship to the children of U.S. citizens and legally resident aliens. And similar bills have entered--been introduced by other legislators in nearly every Congress since, I believe.    Some clarification from Congress on this issue would certainly be welcomed and perfectly appropriate. I would be happy to take any questions on these and other issues. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Feere.    They have called votes. But, Mr. Cohen, I am going to let you give your opening, and then we will recess for votes after that.    Mr. Cohen.</t>
   </si>
   <si>
+    <t>Cohen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, sir.    It's an honor, a great honor to be here today. Birthright citizenship is a core value enshrined in the first sentence of our--of the 14th Amendment. With the exception of children of diplomats, members of Indian tribes, and hostile enemy occupiers, the birthright citizenship clause provides that all children born in this country are citizens entitled to the full blessings of our democracy. The immigration status of their parents is irrelevant.    The view of birthright citizenship that I've just expressed is compelled by the plain language of the 14th Amendment, by its legislative history, and by Supreme Court precedent. Those offering a contrary view must bear a heavy burden of persuasion.    The birthright citizenship clause, as a number of you have noted, provides that all persons born or naturalized into the United States and subject to the jurisdiction thereof are citizens of the United States and the State wherein they reside. On its face, the clause makes no distinction on the basis of one's parents' immigration status. From a commonsensical point of view, children born in this country are subject to the jurisdiction of the state: They must obey our laws. They must pay taxes if they earn income. They can be jailed or removed from their homes and placed in foster homes.    As Professor Graglia noted, Plyler adopted this commonsensical view, although he apparently believes it's wrong.    In the seminal case of Wong Kim Ark, the Supreme Court made it clear that the blessings of birthright citizenship do not turn on the immigration status of one's parents. As this Committee knows, the case concerned the status of someone born in this country to Chinese parents. Under the law at the time, his parents were ineligible for citizenship. The court pointedly noted that the parents were subjects of the Emperor of China. Nevertheless, the court ruled that Wong Kim was subject to the jurisdiction of this country under the 14th Amendment and, therefore, a citizen by virtue of having been born here.    The legislative history of the 14th Amendment powerfully supports this understanding. During the debate of the proposed amendment in the Senate, Senator Cowan focused on gypsies in an effort to persuade his colleagues not to support birthright citizenship. He described gypsies as pariahs. He said that, and this is a quote, ``They were trespassers wherever they go.'' Trespassers. That is about as close as it gets in 1866 to so-called illegal immigrants.    No one in the Senate took issue with Senator Cowan's stereotypic description of gypsies. No one claimed that they were not trespassers. But what other Senators did make clear was that the birthright citizenship clause would confer citizenship on the children of gypsies.    The Supreme Court, in Wong Kim Ark, took note of this fact. The Wong Kim Court emphasized that the 14th Amendment granted--that the 14th Amendment's grant of birthright citizenship is very broad. The Court also emphasized that, while Congress may have plenary authority over immigration, including the authority to legislate against those who were unpopular, it is powerless to limit birthright citizenship by ordinary legislation. The only way that that can be done is by constitutional amendment. That is the course that those who oppose birthright citizenship must pursue.    Let me use one of our cases to illustrate why I hope those who want to change the law are not going to be successful. Recently, we had the privilege of representing a young woman named Wendy Ruiz. She was born in Florida and lived there all her life. Yet the State was denying her the possibility of in-state tuition because she couldn't prove that her parents were here legally. We sued and won the case. And the court, citing Plyler, emphasized that we shouldn't visit this supposed sins of the parents on their children.    Last fall, after attending college, Wendy spoke at the Dexter Avenue Baptist Church. That's the church from which Dr. King and his allies launched the modern civil rights movement. She told a deeply, deeply American story. She talked about the struggles of her farm worker parents. She talked about the determination to get--her determination to get an education. She talked about her dream of becoming a lawyer so she could give back to the community. One day, I hope that she gets to testify before this Committee.    It is simply inconceivable to me that our country would deny the blessings of citizenship to the Wendy Ruizes of the world. Our immigration system may be broken, but we should resist the calls to roll back the constitutional guarantee of birthright citizenship in an effort to fix it. The clause expresses a fundamental principle of our democracy that there are no second-class citizens, that all persons born in this country, regardless of the status of their parents, are equal citizens under the law.    I appreciate it, Mr. Chairman. I look forward to your questions.</t>
   </si>
   <si>
@@ -205,6 +241,12 @@
     <t>412419</t>
   </si>
   <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Labrador. I object.</t>
   </si>
   <si>
@@ -337,6 +379,9 @@
     <t xml:space="preserve">    Mr. King. The gentleman's time has expired.    The Chair will recognize the gentleman from Illinois, Mr. Gutierrez, for 5 minutes.</t>
   </si>
   <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gutierrez. Thank you very much.    Mr. Graglia, I'd like to ask you, in 2012, you made some comments that raised a lot of eyebrows explaining why you feel African American citizens are not competitive in college admittance, you told a BBC reporter, I quote: ``I can hardly imagine a less beneficial or more deleterious experience than to be raised by a single parent, usually a female, uneducated and without a lot of money.''    Things turned personal when the reporter told you that since he was Black and was raised in a single-parent family, you are saying the less ``likely'' not as smart as a White person of the same age.    In response you said, ``Well, from listening to you and knowing what you are and what you've done, I'd say you're rather more smart. My guess would be that you are above usual smartness for White, to say nothing of Black.''    Can you explain to us that comment?</t>
   </si>
   <si>
@@ -409,6 +454,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. I would like to know----</t>
   </si>
   <si>
@@ -496,6 +547,12 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Thank you, Mr. King. Thank you for presiding at this time.    Let me thank the Ranking Member for her presence and leadership on these very important issues.    First of all, let me welcome Mr. Cohen. We've spent a lot of good time together. Thank you for enormous leadership on any number of important issues.</t>
   </si>
   <si>
@@ -572,6 +629,12 @@
   </si>
   <si>
     <t>412653</t>
+  </si>
+  <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman.    I'd like to thank the witnesses for being here today to talk about this very important issue. The 700,000 Texans that I have the opportunity to represent, like most Americans, are deeply concerned about the impacts of illegal immigration in this country.    Before coming to Congress, I had the opportunity to serve many of these same constituents in my role as the United States attorney for the Eastern District of Texas. Back in April of 2008 in that role, I arrested some 300 illegal aliens that had committed Social Security fraud and identity theft against hard-working Americans. Now, my actions in that regard were not a matter of choice. I had taken an oath to faithfully execute the laws of the United States. That, by the way, is the same oath that the President takes, to faithfully execute the laws of the United States.    And so many of my constituents are frustrated with what they are seeing right now as a willful disregard for the rule of law in this--in this country. And, given that broader context, my constituents are concerned that the 14th Amendment that we're talking about today, the citizenship clause of the Constitution, is interpreted in a way that gives children of illegal aliens citizenship at birth.    So many of the folks that I represent feel that the current policy encourages folks to come to the United States solely for that purpose, and there is ample evidence out there of this fact. Just back in March, the Wall Street Journal reported that Federal agents had raided several sites in California that were connected to different multimillion dollar birth tourism businesses or anchor baby businesses. And I think Mr. Eastman, I believe, or maybe Mr. Ferre talked about the fact that this is an industry where maybe 350,000 to 400,000 children are being born to illegal immigrants in the United States, and that just really brings this issue into focus for so many.    So I'd like to start, Mister--Dr. Eastman, with a question for you. I've understood your testimony to be here today the same as Mr. Graglia and Mr. Feere that Congress does have, in your opinion, the ability to deal with this issue statutorily, as Mr. King would like to do, as opposed to requiring a constitutional amendment. Is that correct?</t>
@@ -986,7 +1049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,7 +1057,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,4589 +1079,5349 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G55" t="s">
+        <v>75</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G59" t="s">
+        <v>75</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G61" t="s">
+        <v>75</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G65" t="s">
+        <v>75</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G67" t="s">
+        <v>75</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G73" t="s">
+        <v>75</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G75" t="s">
+        <v>75</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G77" t="s">
+        <v>75</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>41</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G79" t="s">
+        <v>75</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>41</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G81" t="s">
+        <v>75</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>41</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G83" t="s">
+        <v>75</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>41</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G85" t="s">
+        <v>75</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G89" t="s">
+        <v>75</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>62</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G91" t="s">
+        <v>75</v>
+      </c>
       <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
       <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s">
+        <v>121</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>121</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>121</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
+        <v>121</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s">
+        <v>121</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G102" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
+        <v>121</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s">
+        <v>121</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G106" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s">
+        <v>121</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>121</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s">
+        <v>33</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>121</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
       <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s">
+        <v>121</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>130</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G116" t="s">
+        <v>146</v>
+      </c>
       <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s">
+        <v>121</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>130</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G118" t="s">
+        <v>146</v>
+      </c>
       <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
       <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G120" t="s">
+        <v>121</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>41</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s">
+        <v>121</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G124" t="s">
+        <v>121</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s">
+        <v>41</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>121</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>41</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>121</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>41</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
       <c r="H130" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>130</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G131" t="s">
+        <v>146</v>
+      </c>
       <c r="H131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
       <c r="H132" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
       <c r="H133" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G134" t="s">
+        <v>121</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>130</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G135" t="s">
+        <v>146</v>
+      </c>
       <c r="H135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>19</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G136" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>130</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G137" t="s">
+        <v>146</v>
+      </c>
       <c r="H137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>130</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G139" t="s">
+        <v>146</v>
+      </c>
       <c r="H139" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G140" t="s">
+        <v>38</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>130</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G141" t="s">
+        <v>146</v>
+      </c>
       <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s">
+        <v>38</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>130</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G143" t="s">
+        <v>146</v>
+      </c>
       <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
       <c r="H144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>159</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G145" t="s">
+        <v>177</v>
+      </c>
       <c r="H145" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s">
+        <v>41</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>159</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G147" t="s">
+        <v>177</v>
+      </c>
       <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G148" t="s">
+        <v>33</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>159</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G149" t="s">
+        <v>177</v>
+      </c>
       <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G150" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>159</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G151" t="s">
+        <v>177</v>
+      </c>
       <c r="H151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>33</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>159</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G153" t="s">
+        <v>177</v>
+      </c>
       <c r="H153" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s">
+        <v>33</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>159</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G155" t="s">
+        <v>177</v>
+      </c>
       <c r="H155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>33</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>159</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G157" t="s">
+        <v>177</v>
+      </c>
       <c r="H157" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G158" t="s">
+        <v>33</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>159</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G159" t="s">
+        <v>177</v>
+      </c>
       <c r="H159" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G160" t="s">
+        <v>33</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>159</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G161" t="s">
+        <v>177</v>
+      </c>
       <c r="H161" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I161" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G162" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>159</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G163" t="s">
+        <v>177</v>
+      </c>
       <c r="H163" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I163" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G164" t="s">
+        <v>41</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>159</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G165" t="s">
+        <v>177</v>
+      </c>
       <c r="H165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G166" t="s">
+        <v>41</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>159</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G167" t="s">
+        <v>177</v>
+      </c>
       <c r="H167" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I167" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G168" t="s">
+        <v>41</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>159</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G169" t="s">
+        <v>177</v>
+      </c>
       <c r="H169" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I169" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
       <c r="H170" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I170" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>185</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G171" t="s">
+        <v>205</v>
+      </c>
       <c r="H171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I171" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G172" t="s">
+        <v>30</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>185</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G173" t="s">
+        <v>205</v>
+      </c>
       <c r="H173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I173" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G174" t="s">
+        <v>30</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>185</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G175" t="s">
+        <v>205</v>
+      </c>
       <c r="H175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I175" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G176" t="s">
+        <v>30</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>185</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G177" t="s">
+        <v>205</v>
+      </c>
       <c r="H177" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I177" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G178" t="s">
+        <v>30</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>185</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G179" t="s">
+        <v>205</v>
+      </c>
       <c r="H179" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I179" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s">
+        <v>17</v>
+      </c>
       <c r="H180" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I180" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G181" t="s">
+        <v>41</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s">
+        <v>17</v>
+      </c>
       <c r="H182" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I182" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G183" t="s">
+        <v>41</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s">
+        <v>17</v>
+      </c>
       <c r="H184" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I184" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G185" t="s">
+        <v>30</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s">
+        <v>17</v>
+      </c>
       <c r="H186" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I186" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G187" t="s">
+        <v>38</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s">
+        <v>17</v>
+      </c>
       <c r="H188" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I188" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G189" t="s">
+        <v>38</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s">
+        <v>17</v>
+      </c>
       <c r="H190" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I190" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G191" t="s">
+        <v>41</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>13</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s">
+        <v>17</v>
+      </c>
       <c r="H192" t="s">
-        <v>207</v>
+        <v>18</v>
+      </c>
+      <c r="I192" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94409.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94409.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412473</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Gowdy</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400220</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>King</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>400245</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lofgren</t>
   </si>
   <si>
@@ -239,6 +251,9 @@
   </si>
   <si>
     <t>412419</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Labrador</t>
@@ -1049,7 +1064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,7 +1072,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,5346 +1097,5724 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" t="s">
-        <v>41</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" t="s">
-        <v>41</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" t="s">
-        <v>41</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s">
-        <v>41</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" t="s">
-        <v>41</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s">
-        <v>41</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" t="s">
-        <v>41</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>45</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" t="s">
-        <v>41</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" t="s">
-        <v>41</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>45</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" t="s">
-        <v>30</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" t="s">
-        <v>30</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s">
-        <v>121</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>126</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" t="s">
-        <v>33</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>121</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>126</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="s">
-        <v>33</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>121</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s">
-        <v>33</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>121</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>126</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" t="s">
-        <v>33</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>37</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s">
-        <v>121</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>126</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" t="s">
-        <v>33</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>37</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s">
-        <v>121</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>126</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" t="s">
-        <v>33</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>121</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>126</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" t="s">
-        <v>33</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s">
-        <v>121</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>126</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" t="s">
-        <v>33</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" t="s">
-        <v>121</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>126</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" t="s">
-        <v>33</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>37</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>126</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" t="s">
-        <v>33</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>37</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>121</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>126</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>121</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>126</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G116" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I116" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" t="s">
-        <v>121</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>126</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G118" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I118" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I119" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" t="s">
-        <v>121</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>126</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s">
-        <v>41</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>45</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" t="s">
-        <v>121</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>126</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s">
-        <v>41</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>45</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" t="s">
-        <v>121</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>126</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" t="s">
-        <v>41</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>45</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" t="s">
-        <v>121</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>126</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" t="s">
-        <v>41</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>45</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" t="s">
-        <v>121</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>126</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" t="s">
-        <v>41</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>45</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H130" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I130" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G131" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H131" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I131" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H132" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I132" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G133" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H133" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I133" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" t="s">
-        <v>121</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>126</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G135" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H135" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I135" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>26</v>
-      </c>
-      <c r="G136" t="s">
-        <v>30</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>34</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G137" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H137" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I137" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J137" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" t="s">
-        <v>33</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>37</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G139" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H139" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I139" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J139" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" t="s">
-        <v>38</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>42</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G141" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H141" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I141" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" t="s">
-        <v>38</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>42</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G143" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H143" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I143" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G144" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H144" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I144" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G145" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I145" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J145" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" t="s">
-        <v>41</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>45</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G147" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I147" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>37</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G149" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H149" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I149" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J149" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>26</v>
-      </c>
-      <c r="G150" t="s">
-        <v>33</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>37</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G151" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H151" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I151" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J151" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G152" t="s">
-        <v>33</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>37</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G153" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I153" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J153" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>26</v>
-      </c>
-      <c r="G154" t="s">
-        <v>33</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>37</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G155" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H155" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I155" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J155" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
-      </c>
-      <c r="G156" t="s">
-        <v>33</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>37</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G157" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I157" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J157" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>26</v>
-      </c>
-      <c r="G158" t="s">
-        <v>33</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>37</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G159" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H159" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I159" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J159" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>26</v>
-      </c>
-      <c r="G160" t="s">
-        <v>33</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>37</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G161" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H161" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I161" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J161" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>26</v>
-      </c>
-      <c r="G162" t="s">
-        <v>33</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>37</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G163" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H163" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I163" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>26</v>
-      </c>
-      <c r="G164" t="s">
-        <v>41</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>45</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G165" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H165" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I165" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J165" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>26</v>
-      </c>
-      <c r="G166" t="s">
-        <v>41</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>45</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G167" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H167" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I167" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J167" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>26</v>
-      </c>
-      <c r="G168" t="s">
-        <v>41</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>45</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G169" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H169" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I169" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J169" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G170" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H170" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I170" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J170" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G171" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I171" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>211</v>
+      </c>
+      <c r="J171" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>26</v>
-      </c>
-      <c r="G172" t="s">
-        <v>30</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>34</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G173" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I173" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>211</v>
+      </c>
+      <c r="J173" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>26</v>
-      </c>
-      <c r="G174" t="s">
-        <v>30</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>34</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G175" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="H175" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I175" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="J175" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>26</v>
-      </c>
-      <c r="G176" t="s">
-        <v>30</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>34</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G177" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I177" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>211</v>
+      </c>
+      <c r="J177" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>26</v>
-      </c>
-      <c r="G178" t="s">
-        <v>30</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>34</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G179" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I179" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>211</v>
+      </c>
+      <c r="J179" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G180" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H180" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I180" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J180" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>26</v>
-      </c>
-      <c r="G181" t="s">
-        <v>41</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>45</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G182" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H182" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I182" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J182" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>26</v>
-      </c>
-      <c r="G183" t="s">
-        <v>41</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>45</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G184" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H184" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I184" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J184" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>26</v>
-      </c>
-      <c r="G185" t="s">
-        <v>30</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>34</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G186" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H186" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I186" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J186" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>26</v>
-      </c>
-      <c r="G187" t="s">
-        <v>38</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>42</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G188" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H188" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I188" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J188" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>26</v>
-      </c>
-      <c r="G189" t="s">
-        <v>38</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>42</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G190" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H190" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I190" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J190" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>26</v>
-      </c>
-      <c r="G191" t="s">
-        <v>41</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>45</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G192" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H192" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I192" t="s">
-        <v>228</v>
+        <v>21</v>
+      </c>
+      <c r="J192" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
